--- a/data/trans_orig/Q20C_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q20C_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{352D952E-7435-4F24-B911-35A00E6EA89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FC920F5-44CA-4C1B-862B-F14BE51DD14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{45122794-AFCB-4066-9384-22FC3539DFE8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5B09A613-C25C-46F4-A9A4-77EC26ECA1E3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="516">
   <si>
     <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2007 (Tasa respuesta: 1,32%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>36,98%</t>
   </si>
   <si>
-    <t>15,92%</t>
+    <t>15,78%</t>
   </si>
   <si>
     <t>58,33%</t>
@@ -86,1360 +86,1351 @@
     <t>25,15%</t>
   </si>
   <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>Tercer Cuartil</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>Segundo Cuartil</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>Primer Cuartil</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2012 (Tasa respuesta: 1,98%)</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2016 (Tasa respuesta: 1,55%)</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
     <t>11,96%</t>
   </si>
   <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>Tercer Cuartil</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>Segundo Cuartil</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>Primer Cuartil</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2012 (Tasa respuesta: 1,98%)</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2023 (Tasa respuesta: 1,74%)</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
   </si>
   <si>
     <t>10,55%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2015 (Tasa respuesta: 1,55%)</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2023 (Tasa respuesta: 1,74%)</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
   </si>
   <si>
     <t>0,95%</t>
@@ -2007,7 +1998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A44FBE3-97FF-4092-A0BF-55051F334E88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337C0523-8CB8-4F51-8CDE-B960A95E6B0A}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2493,10 +2484,10 @@
         <v>64</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -2505,13 +2496,13 @@
         <v>2599</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -2520,13 +2511,13 @@
         <v>5691</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2541,13 +2532,13 @@
         <v>3688</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H12" s="7">
         <v>9</v>
@@ -2556,13 +2547,13 @@
         <v>8607</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M12" s="7">
         <v>13</v>
@@ -2571,13 +2562,13 @@
         <v>12295</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2633,7 +2624,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2645,13 +2636,13 @@
         <v>2502</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2666,7 +2657,7 @@
         <v>51</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -2675,13 +2666,13 @@
         <v>2502</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,13 +2687,13 @@
         <v>2043</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -2717,7 +2708,7 @@
         <v>51</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
@@ -2726,13 +2717,13 @@
         <v>2043</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2747,13 +2738,13 @@
         <v>1073</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2762,13 +2753,13 @@
         <v>944</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -2777,13 +2768,13 @@
         <v>2017</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,13 +2789,13 @@
         <v>2757</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -2813,13 +2804,13 @@
         <v>3170</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -2828,13 +2819,13 @@
         <v>5927</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2902,13 +2893,13 @@
         <v>8870</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -2917,13 +2908,13 @@
         <v>8690</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>18</v>
@@ -2932,13 +2923,13 @@
         <v>17560</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,13 +2944,13 @@
         <v>3826</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -2968,13 +2959,13 @@
         <v>10495</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -2983,13 +2974,13 @@
         <v>14321</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,13 +2995,13 @@
         <v>7818</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -3019,13 +3010,13 @@
         <v>4518</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M21" s="7">
         <v>13</v>
@@ -3034,13 +3025,13 @@
         <v>12336</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,13 +3046,13 @@
         <v>12799</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H22" s="7">
         <v>26</v>
@@ -3070,13 +3061,13 @@
         <v>25309</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M22" s="7">
         <v>40</v>
@@ -3085,13 +3076,13 @@
         <v>38107</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,7 +3138,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3166,7 +3157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778EEA74-2D50-444B-9974-3EFD9BA00D8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F16E8B-C8A3-4823-A2D2-D70CA330AB7A}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3183,7 +3174,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3290,13 +3281,13 @@
         <v>5372</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -3305,13 +3296,13 @@
         <v>8318</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -3323,10 +3314,10 @@
         <v>52</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3341,13 +3332,13 @@
         <v>4277</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -3356,13 +3347,13 @@
         <v>7597</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -3371,13 +3362,13 @@
         <v>11874</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,13 +3383,13 @@
         <v>6864</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -3407,13 +3398,13 @@
         <v>5268</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
@@ -3422,13 +3413,13 @@
         <v>12133</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3443,13 +3434,13 @@
         <v>11310</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -3458,13 +3449,13 @@
         <v>16986</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -3473,13 +3464,13 @@
         <v>28296</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3538,13 @@
         <v>6084</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>181</v>
-      </c>
       <c r="G9" s="7" t="s">
-        <v>182</v>
+        <v>64</v>
       </c>
       <c r="H9" s="7">
         <v>8</v>
@@ -3562,13 +3553,13 @@
         <v>9145</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M9" s="7">
         <v>14</v>
@@ -3577,13 +3568,13 @@
         <v>15229</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,13 +3589,13 @@
         <v>7034</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -3613,13 +3604,13 @@
         <v>5032</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -3628,13 +3619,13 @@
         <v>12066</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>195</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,13 +3640,13 @@
         <v>5522</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -3664,13 +3655,13 @@
         <v>9186</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M11" s="7">
         <v>15</v>
@@ -3679,13 +3670,13 @@
         <v>14708</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,13 +3691,13 @@
         <v>9500</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -3715,13 +3706,13 @@
         <v>10595</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>29</v>
+        <v>207</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M12" s="7">
         <v>18</v>
@@ -3730,13 +3721,13 @@
         <v>20095</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,7 +3783,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3810,7 +3801,7 @@
         <v>51</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -3819,13 +3810,13 @@
         <v>4499</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -3834,13 +3825,13 @@
         <v>4499</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,7 +3852,7 @@
         <v>51</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -3870,13 +3861,13 @@
         <v>1067</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -3885,7 +3876,7 @@
         <v>1067</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>22</v>
@@ -3912,7 +3903,7 @@
         <v>22</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3936,13 +3927,13 @@
         <v>4334</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>158</v>
+        <v>227</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,13 +3948,13 @@
         <v>947</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -3972,7 +3963,7 @@
         <v>1279</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>22</v>
@@ -4097,7 +4088,7 @@
         <v>241</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>242</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,13 +4103,13 @@
         <v>11311</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -4127,13 +4118,13 @@
         <v>13696</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M20" s="7">
         <v>22</v>
@@ -4142,13 +4133,13 @@
         <v>25007</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,13 +4154,13 @@
         <v>14531</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H21" s="7">
         <v>16</v>
@@ -4178,13 +4169,13 @@
         <v>16644</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M21" s="7">
         <v>29</v>
@@ -4193,13 +4184,13 @@
         <v>31175</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,13 +4205,13 @@
         <v>21756</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H22" s="7">
         <v>26</v>
@@ -4229,13 +4220,13 @@
         <v>28860</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M22" s="7">
         <v>46</v>
@@ -4244,13 +4235,13 @@
         <v>50617</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,7 +4297,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4325,7 +4316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EA455D-A00C-42D5-BB10-D7F6D1D25B21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2DA3C6-A716-4937-A47F-883E354F2D71}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4342,7 +4333,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4449,13 +4440,13 @@
         <v>1059</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>194</v>
+        <v>270</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -4464,13 +4455,13 @@
         <v>4720</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -4479,13 +4470,13 @@
         <v>5779</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,13 +4491,13 @@
         <v>2982</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -4515,13 +4506,13 @@
         <v>5590</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -4530,13 +4521,13 @@
         <v>8572</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,13 +4542,13 @@
         <v>5992</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -4566,13 +4557,13 @@
         <v>1785</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M6" s="7">
         <v>8</v>
@@ -4581,13 +4572,13 @@
         <v>7777</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4602,7 +4593,7 @@
         <v>2884</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>56</v>
+        <v>294</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>295</v>
@@ -4706,13 +4697,13 @@
         <v>10083</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="H9" s="7">
         <v>11</v>
@@ -4721,13 +4712,13 @@
         <v>11299</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>307</v>
-      </c>
       <c r="L9" s="7" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="M9" s="7">
         <v>20</v>
@@ -4736,13 +4727,13 @@
         <v>21383</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>311</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4757,13 +4748,13 @@
         <v>8088</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -4772,13 +4763,13 @@
         <v>9509</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -4787,13 +4778,13 @@
         <v>17598</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,13 +4799,13 @@
         <v>8307</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -4823,13 +4814,13 @@
         <v>5080</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M11" s="7">
         <v>12</v>
@@ -4838,13 +4829,13 @@
         <v>13387</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>212</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4859,13 +4850,13 @@
         <v>7547</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -4874,13 +4865,13 @@
         <v>7526</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M12" s="7">
         <v>14</v>
@@ -4889,13 +4880,13 @@
         <v>15073</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4951,7 +4942,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4969,7 +4960,7 @@
         <v>51</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4984,7 +4975,7 @@
         <v>51</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4999,7 +4990,7 @@
         <v>51</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5014,13 +5005,13 @@
         <v>865</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -5029,13 +5020,13 @@
         <v>1074</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
@@ -5044,13 +5035,13 @@
         <v>1939</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,13 +5056,13 @@
         <v>2507</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -5080,13 +5071,13 @@
         <v>943</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -5095,13 +5086,13 @@
         <v>3451</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,13 +5107,13 @@
         <v>964</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>103</v>
+        <v>347</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -5137,7 +5128,7 @@
         <v>51</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -5146,13 +5137,13 @@
         <v>964</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,13 +5211,13 @@
         <v>11143</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
@@ -5235,13 +5226,13 @@
         <v>16019</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="M19" s="7">
         <v>26</v>
@@ -5250,13 +5241,13 @@
         <v>27161</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,13 +5262,13 @@
         <v>11935</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="H20" s="7">
         <v>14</v>
@@ -5286,13 +5277,13 @@
         <v>16173</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="M20" s="7">
         <v>25</v>
@@ -5301,13 +5292,13 @@
         <v>28108</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5322,13 +5313,13 @@
         <v>16806</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>371</v>
+        <v>103</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
@@ -5337,13 +5328,13 @@
         <v>7808</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="M21" s="7">
         <v>23</v>
@@ -5352,13 +5343,13 @@
         <v>24614</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,13 +5364,13 @@
         <v>11394</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>352</v>
+        <v>375</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -5388,13 +5379,13 @@
         <v>20249</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="M22" s="7">
         <v>28</v>
@@ -5403,13 +5394,13 @@
         <v>31644</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5465,7 +5456,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -5484,7 +5475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679BAFAB-FBE3-4EEB-9F46-AA04808F6E93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01249A7E-A3CB-4BB5-93DD-9FC6250B2CF9}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5501,7 +5492,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5608,13 +5599,13 @@
         <v>5667</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>387</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -5623,13 +5614,13 @@
         <v>1405</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -5638,13 +5629,13 @@
         <v>7071</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5659,13 +5650,13 @@
         <v>2996</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -5674,13 +5665,13 @@
         <v>5640</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -5689,13 +5680,13 @@
         <v>8636</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5710,13 +5701,13 @@
         <v>600</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -5725,13 +5716,13 @@
         <v>2031</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -5740,13 +5731,13 @@
         <v>2631</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5761,13 +5752,13 @@
         <v>7244</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -5776,13 +5767,13 @@
         <v>4879</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -5791,13 +5782,13 @@
         <v>12124</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5865,13 +5856,13 @@
         <v>6946</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H9" s="7">
         <v>10</v>
@@ -5880,13 +5871,13 @@
         <v>5545</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="M9" s="7">
         <v>19</v>
@@ -5895,13 +5886,13 @@
         <v>12491</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5916,13 +5907,13 @@
         <v>4294</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -5931,13 +5922,13 @@
         <v>3944</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -5946,13 +5937,13 @@
         <v>8238</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5967,13 +5958,13 @@
         <v>6223</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -5982,13 +5973,13 @@
         <v>3985</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="M11" s="7">
         <v>14</v>
@@ -5997,13 +5988,13 @@
         <v>10208</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6018,13 +6009,13 @@
         <v>14339</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H12" s="7">
         <v>17</v>
@@ -6033,13 +6024,13 @@
         <v>12156</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>236</v>
+        <v>447</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="M12" s="7">
         <v>31</v>
@@ -6048,13 +6039,13 @@
         <v>26494</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6110,7 +6101,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6122,13 +6113,13 @@
         <v>2667</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -6137,13 +6128,13 @@
         <v>1817</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>459</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -6152,13 +6143,13 @@
         <v>4484</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>461</v>
+        <v>243</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6173,13 +6164,13 @@
         <v>1076</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
@@ -6188,13 +6179,13 @@
         <v>891</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>466</v>
+        <v>189</v>
       </c>
       <c r="M15" s="7">
         <v>3</v>
@@ -6203,13 +6194,13 @@
         <v>1967</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>163</v>
+        <v>463</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6224,13 +6215,13 @@
         <v>5896</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -6239,13 +6230,13 @@
         <v>442</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -6254,13 +6245,13 @@
         <v>6338</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6275,13 +6266,13 @@
         <v>1514</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -6290,13 +6281,13 @@
         <v>4341</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -6305,13 +6296,13 @@
         <v>5855</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6379,13 +6370,13 @@
         <v>15279</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -6394,13 +6385,13 @@
         <v>8767</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="M19" s="7">
         <v>37</v>
@@ -6409,13 +6400,13 @@
         <v>24046</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6430,13 +6421,13 @@
         <v>8366</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="H20" s="7">
         <v>19</v>
@@ -6445,13 +6436,13 @@
         <v>10475</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="M20" s="7">
         <v>31</v>
@@ -6460,13 +6451,13 @@
         <v>18841</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6481,13 +6472,13 @@
         <v>12719</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -6496,13 +6487,13 @@
         <v>6458</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="M21" s="7">
         <v>26</v>
@@ -6511,13 +6502,13 @@
         <v>19178</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6532,13 +6523,13 @@
         <v>23097</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="H22" s="7">
         <v>32</v>
@@ -6547,13 +6538,13 @@
         <v>21376</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="M22" s="7">
         <v>57</v>
@@ -6562,13 +6553,13 @@
         <v>44473</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6624,7 +6615,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q20C_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q20C_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FC920F5-44CA-4C1B-862B-F14BE51DD14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A17CCB6-8B5C-4C8E-88DB-547A911F9413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5B09A613-C25C-46F4-A9A4-77EC26ECA1E3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{95FF58FF-411D-4666-90FA-CFA92162B8CF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="517">
   <si>
     <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2007 (Tasa respuesta: 1,32%)</t>
   </si>
@@ -77,1516 +77,1519 @@
     <t>36,98%</t>
   </si>
   <si>
-    <t>15,78%</t>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>Tercer Cuartil</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>Segundo Cuartil</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>Primer Cuartil</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2012 (Tasa respuesta: 1,98%)</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2016 (Tasa respuesta: 1,55%)</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2023 (Tasa respuesta: 1,74%)</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
   </si>
   <si>
     <t>58,33%</t>
   </si>
   <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>Tercer Cuartil</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>Segundo Cuartil</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>Primer Cuartil</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2012 (Tasa respuesta: 1,98%)</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2016 (Tasa respuesta: 1,55%)</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2023 (Tasa respuesta: 1,74%)</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
     <t>23,91%</t>
   </si>
   <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
   </si>
   <si>
     <t>24,26%</t>
   </si>
   <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
   </si>
   <si>
     <t>24,05%</t>
   </si>
   <si>
-    <t>46,3%</t>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
   </si>
   <si>
     <t>9,65%</t>
   </si>
   <si>
-    <t>41,84%</t>
+    <t>48,06%</t>
   </si>
   <si>
     <t>11,89%</t>
   </si>
   <si>
+    <t>49,86%</t>
+  </si>
+  <si>
     <t>10,55%</t>
   </si>
   <si>
     <t>0,95%</t>
   </si>
   <si>
-    <t>34,43%</t>
+    <t>31,37%</t>
   </si>
   <si>
     <t>52,87%</t>
   </si>
   <si>
-    <t>83,83%</t>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
   </si>
   <si>
     <t>5,9%</t>
   </si>
   <si>
-    <t>33,32%</t>
+    <t>25,18%</t>
   </si>
   <si>
     <t>34,0%</t>
   </si>
   <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
   </si>
   <si>
     <t>13,57%</t>
   </si>
   <si>
-    <t>40,36%</t>
+    <t>41,32%</t>
   </si>
   <si>
     <t>57,95%</t>
   </si>
   <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
   </si>
   <si>
     <t>31,4%</t>
   </si>
   <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
   </si>
   <si>
     <t>25,7%</t>
   </si>
   <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
   </si>
   <si>
     <t>18,62%</t>
   </si>
   <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
   </si>
   <si>
     <t>22,57%</t>
   </si>
   <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
   </si>
   <si>
     <t>14,07%</t>
   </si>
   <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
   </si>
   <si>
     <t>22,25%</t>
   </si>
   <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
   </si>
   <si>
     <t>17,68%</t>
   </si>
   <si>
-    <t>12,15%</t>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
   </si>
   <si>
     <t>21,39%</t>
   </si>
   <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
   </si>
   <si>
     <t>13,72%</t>
   </si>
   <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
   </si>
   <si>
     <t>18,0%</t>
   </si>
   <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
+    <t>25,4%</t>
   </si>
   <si>
     <t>38,84%</t>
   </si>
   <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
   </si>
   <si>
     <t>45,41%</t>
   </si>
   <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
   </si>
   <si>
     <t>41,74%</t>
   </si>
   <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
   </si>
 </sst>
 </file>
@@ -1998,7 +2001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337C0523-8CB8-4F51-8CDE-B960A95E6B0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4DF6F22-8C8E-4E88-8E55-78FD30540CF6}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2484,10 +2487,10 @@
         <v>64</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -2496,13 +2499,13 @@
         <v>2599</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -2511,13 +2514,13 @@
         <v>5691</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,13 +2535,13 @@
         <v>3688</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H12" s="7">
         <v>9</v>
@@ -2547,13 +2550,13 @@
         <v>8607</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M12" s="7">
         <v>13</v>
@@ -2562,13 +2565,13 @@
         <v>12295</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2624,7 +2627,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2636,13 +2639,13 @@
         <v>2502</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2657,7 +2660,7 @@
         <v>51</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -2666,13 +2669,13 @@
         <v>2502</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,13 +2690,13 @@
         <v>2043</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -2708,7 +2711,7 @@
         <v>51</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
@@ -2717,13 +2720,13 @@
         <v>2043</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,13 +2741,13 @@
         <v>1073</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2753,13 +2756,13 @@
         <v>944</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -2768,13 +2771,13 @@
         <v>2017</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2789,13 +2792,13 @@
         <v>2757</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -2804,13 +2807,13 @@
         <v>3170</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -2819,13 +2822,13 @@
         <v>5927</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,13 +2896,13 @@
         <v>8870</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -2908,13 +2911,13 @@
         <v>8690</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>18</v>
@@ -2923,13 +2926,13 @@
         <v>17560</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2944,13 +2947,13 @@
         <v>3826</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -2959,13 +2962,13 @@
         <v>10495</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -2974,13 +2977,13 @@
         <v>14321</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,13 +2998,13 @@
         <v>7818</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -3010,13 +3013,13 @@
         <v>4518</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M21" s="7">
         <v>13</v>
@@ -3025,13 +3028,13 @@
         <v>12336</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3046,13 +3049,13 @@
         <v>12799</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H22" s="7">
         <v>26</v>
@@ -3061,13 +3064,13 @@
         <v>25309</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M22" s="7">
         <v>40</v>
@@ -3076,13 +3079,13 @@
         <v>38107</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,7 +3141,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3157,7 +3160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F16E8B-C8A3-4823-A2D2-D70CA330AB7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F74243-4811-4E67-B042-BF5FDF264CC3}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3174,7 +3177,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3281,10 +3284,10 @@
         <v>5372</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>53</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>146</v>
@@ -3353,7 +3356,7 @@
         <v>156</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -3362,13 +3365,13 @@
         <v>11874</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,13 +3386,13 @@
         <v>6864</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -3398,13 +3401,13 @@
         <v>5268</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
@@ -3413,13 +3416,13 @@
         <v>12133</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,13 +3437,13 @@
         <v>11310</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -3449,13 +3452,13 @@
         <v>16986</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -3464,13 +3467,13 @@
         <v>28296</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,13 +3541,13 @@
         <v>6084</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H9" s="7">
         <v>8</v>
@@ -3619,13 +3622,13 @@
         <v>12066</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>193</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,13 +3643,13 @@
         <v>5522</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -3655,13 +3658,13 @@
         <v>9186</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M11" s="7">
         <v>15</v>
@@ -3670,13 +3673,13 @@
         <v>14708</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3691,13 +3694,13 @@
         <v>9500</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -3706,13 +3709,13 @@
         <v>10595</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M12" s="7">
         <v>18</v>
@@ -3721,13 +3724,13 @@
         <v>20095</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3783,7 +3786,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3801,7 +3804,7 @@
         <v>51</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -3810,13 +3813,13 @@
         <v>4499</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -3825,13 +3828,13 @@
         <v>4499</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,7 +3855,7 @@
         <v>51</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -3861,13 +3864,13 @@
         <v>1067</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -3876,13 +3879,13 @@
         <v>1067</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,13 +3900,13 @@
         <v>2145</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3912,13 +3915,13 @@
         <v>2189</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -3927,13 +3930,13 @@
         <v>4334</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,13 +3951,13 @@
         <v>947</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -3963,13 +3966,13 @@
         <v>1279</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -3978,13 +3981,13 @@
         <v>2226</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,13 +4055,13 @@
         <v>11456</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -4067,13 +4070,13 @@
         <v>21962</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M19" s="7">
         <v>31</v>
@@ -4082,13 +4085,13 @@
         <v>33418</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>97</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,13 +4106,13 @@
         <v>11311</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -4118,13 +4121,13 @@
         <v>13696</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M20" s="7">
         <v>22</v>
@@ -4133,13 +4136,13 @@
         <v>25007</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4154,13 +4157,13 @@
         <v>14531</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H21" s="7">
         <v>16</v>
@@ -4169,13 +4172,13 @@
         <v>16644</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M21" s="7">
         <v>29</v>
@@ -4184,13 +4187,13 @@
         <v>31175</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>257</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,13 +4208,13 @@
         <v>21756</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>87</v>
+        <v>263</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H22" s="7">
         <v>26</v>
@@ -4220,13 +4223,13 @@
         <v>28860</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>262</v>
+        <v>204</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M22" s="7">
         <v>46</v>
@@ -4235,13 +4238,13 @@
         <v>50617</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,7 +4300,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -4316,7 +4319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2DA3C6-A716-4937-A47F-883E354F2D71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C71CE5-00C0-4B6F-B2FC-CE00F604A430}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4333,7 +4336,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4440,13 +4443,13 @@
         <v>1059</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -4455,13 +4458,13 @@
         <v>4720</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -4470,13 +4473,13 @@
         <v>5779</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4491,13 +4494,13 @@
         <v>2982</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -4506,13 +4509,13 @@
         <v>5590</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -4521,13 +4524,13 @@
         <v>8572</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4542,13 +4545,13 @@
         <v>5992</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -4557,13 +4560,13 @@
         <v>1785</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M6" s="7">
         <v>8</v>
@@ -4572,13 +4575,13 @@
         <v>7777</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4593,13 +4596,13 @@
         <v>2884</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -4608,13 +4611,13 @@
         <v>12723</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -4623,13 +4626,13 @@
         <v>15607</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4697,13 +4700,13 @@
         <v>10083</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>169</v>
+        <v>305</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H9" s="7">
         <v>11</v>
@@ -4712,13 +4715,13 @@
         <v>11299</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="M9" s="7">
         <v>20</v>
@@ -4727,13 +4730,13 @@
         <v>21383</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>200</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4748,13 +4751,13 @@
         <v>8088</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>311</v>
+        <v>19</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -4763,13 +4766,13 @@
         <v>9509</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -4778,13 +4781,13 @@
         <v>17598</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4799,13 +4802,13 @@
         <v>8307</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -4814,13 +4817,13 @@
         <v>5080</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M11" s="7">
         <v>12</v>
@@ -4829,13 +4832,13 @@
         <v>13387</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,13 +4853,13 @@
         <v>7547</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -4865,13 +4868,13 @@
         <v>7526</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="M12" s="7">
         <v>14</v>
@@ -4880,13 +4883,13 @@
         <v>15073</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4942,7 +4945,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4960,7 +4963,7 @@
         <v>51</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4975,7 +4978,7 @@
         <v>51</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4990,7 +4993,7 @@
         <v>51</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5005,13 +5008,13 @@
         <v>865</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -5020,13 +5023,13 @@
         <v>1074</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
@@ -5035,13 +5038,13 @@
         <v>1939</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5056,13 +5059,13 @@
         <v>2507</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -5071,13 +5074,13 @@
         <v>943</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -5086,13 +5089,13 @@
         <v>3451</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,13 +5110,13 @@
         <v>964</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>347</v>
+        <v>103</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -5128,7 +5131,7 @@
         <v>51</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -5137,13 +5140,13 @@
         <v>964</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,13 +5214,13 @@
         <v>11143</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
@@ -5226,13 +5229,13 @@
         <v>16019</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>354</v>
+        <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M19" s="7">
         <v>26</v>
@@ -5241,13 +5244,13 @@
         <v>27161</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>358</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,10 +5265,10 @@
         <v>11935</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>360</v>
+        <v>258</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>361</v>
@@ -5280,7 +5283,7 @@
         <v>362</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>303</v>
+        <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>363</v>
@@ -5316,10 +5319,10 @@
         <v>367</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
@@ -5364,7 +5367,7 @@
         <v>11394</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>375</v>
@@ -5456,7 +5459,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -5475,7 +5478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01249A7E-A3CB-4BB5-93DD-9FC6250B2CF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E88E7ED-2EDE-4587-BD4F-B45DC0CC5A31}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5602,10 +5605,10 @@
         <v>384</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>385</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -5614,13 +5617,13 @@
         <v>1405</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -5629,13 +5632,13 @@
         <v>7071</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>391</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5701,13 +5704,13 @@
         <v>600</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>401</v>
+        <v>37</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -5716,13 +5719,13 @@
         <v>2031</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -5731,13 +5734,13 @@
         <v>2631</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5752,13 +5755,13 @@
         <v>7244</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -5767,13 +5770,13 @@
         <v>4879</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -5782,13 +5785,13 @@
         <v>12124</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5856,13 +5859,13 @@
         <v>6946</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="H9" s="7">
         <v>10</v>
@@ -5871,13 +5874,13 @@
         <v>5545</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="M9" s="7">
         <v>19</v>
@@ -5892,7 +5895,7 @@
         <v>423</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>424</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5907,13 +5910,13 @@
         <v>4294</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -5922,13 +5925,13 @@
         <v>3944</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>429</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>430</v>
+        <v>83</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -5937,13 +5940,13 @@
         <v>8238</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5958,13 +5961,13 @@
         <v>6223</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>436</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -5973,13 +5976,13 @@
         <v>3985</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>439</v>
       </c>
       <c r="M11" s="7">
         <v>14</v>
@@ -5988,13 +5991,13 @@
         <v>10208</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6009,13 +6012,13 @@
         <v>14339</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="H12" s="7">
         <v>17</v>
@@ -6024,13 +6027,13 @@
         <v>12156</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="M12" s="7">
         <v>31</v>
@@ -6039,13 +6042,13 @@
         <v>26494</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6101,7 +6104,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6113,13 +6116,13 @@
         <v>2667</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -6128,13 +6131,13 @@
         <v>1817</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -6143,13 +6146,13 @@
         <v>4484</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6164,13 +6167,13 @@
         <v>1076</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
@@ -6179,13 +6182,13 @@
         <v>891</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>189</v>
+        <v>462</v>
       </c>
       <c r="M15" s="7">
         <v>3</v>
@@ -6218,10 +6221,10 @@
         <v>466</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>251</v>
+        <v>467</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -6230,13 +6233,13 @@
         <v>442</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -6245,13 +6248,13 @@
         <v>6338</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6266,13 +6269,13 @@
         <v>1514</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -6281,13 +6284,13 @@
         <v>4341</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -6296,13 +6299,13 @@
         <v>5855</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6370,13 +6373,13 @@
         <v>15279</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -6385,13 +6388,13 @@
         <v>8767</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M19" s="7">
         <v>37</v>
@@ -6400,13 +6403,13 @@
         <v>24046</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6421,13 +6424,13 @@
         <v>8366</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H20" s="7">
         <v>19</v>
@@ -6436,13 +6439,13 @@
         <v>10475</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M20" s="7">
         <v>31</v>
@@ -6451,13 +6454,13 @@
         <v>18841</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>161</v>
+        <v>499</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6472,13 +6475,13 @@
         <v>12719</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -6487,13 +6490,13 @@
         <v>6458</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="M21" s="7">
         <v>26</v>
@@ -6502,13 +6505,13 @@
         <v>19178</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6523,13 +6526,13 @@
         <v>23097</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H22" s="7">
         <v>32</v>
@@ -6538,13 +6541,13 @@
         <v>21376</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M22" s="7">
         <v>57</v>
@@ -6553,13 +6556,13 @@
         <v>44473</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6615,7 +6618,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q20C_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q20C_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A17CCB6-8B5C-4C8E-88DB-547A911F9413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{279DFA99-CA3B-4C25-9A43-1814272A75E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{95FF58FF-411D-4666-90FA-CFA92162B8CF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{26F28D8C-D1CF-461A-8958-CE7A4A3339D9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="517">
-  <si>
-    <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2007 (Tasa respuesta: 1,32%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="513">
+  <si>
+    <t>Población según el tiempo de espera en meses para ser hospitalizado (cuartiles) en 2007 (Tasa respuesta: 1,32%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -71,7 +71,7 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Cuarto Cuartil</t>
+    <t>más de 7</t>
   </si>
   <si>
     <t>36,98%</t>
@@ -101,7 +101,7 @@
     <t>43,05%</t>
   </si>
   <si>
-    <t>Tercer Cuartil</t>
+    <t>5-7</t>
   </si>
   <si>
     <t>4,92%</t>
@@ -131,7 +131,7 @@
     <t>32,73%</t>
   </si>
   <si>
-    <t>Segundo Cuartil</t>
+    <t>3-4</t>
   </si>
   <si>
     <t>21,21%</t>
@@ -158,7 +158,7 @@
     <t>19,53%</t>
   </si>
   <si>
-    <t>Primer Cuartil</t>
+    <t>0-2</t>
   </si>
   <si>
     <t>36,89%</t>
@@ -473,7 +473,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2012 (Tasa respuesta: 1,98%)</t>
+    <t>Población según el tiempo de espera en meses para ser hospitalizado (cuartiles) en 2012 (Tasa respuesta: 1,98%)</t>
   </si>
   <si>
     <t>19,31%</t>
@@ -851,7 +851,7 @@
     <t>45,25%</t>
   </si>
   <si>
-    <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2016 (Tasa respuesta: 1,55%)</t>
+    <t>Población según el tiempo de espera en meses para ser hospitalizado (cuartiles) en 2016 (Tasa respuesta: 1,55%)</t>
   </si>
   <si>
     <t>8,2%</t>
@@ -1190,406 +1190,394 @@
     <t>37,65%</t>
   </si>
   <si>
-    <t>Tiempo de espera en meses para ser hospitalizado, en cuartiles en 2023 (Tasa respuesta: 1,74%)</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
+    <t>Población según el tiempo de espera en meses para ser hospitalizado (cuartiles) en 2023 (Tasa respuesta: 1,74%)</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
   </si>
   <si>
     <t>31,43%</t>
   </si>
   <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
   </si>
   <si>
     <t>13,07%</t>
   </si>
   <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
   </si>
 </sst>
 </file>
@@ -2001,7 +1989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4DF6F22-8C8E-4E88-8E55-78FD30540CF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C1DBE5-A6D8-476A-BEF4-DE8D882431AD}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3160,7 +3148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F74243-4811-4E67-B042-BF5FDF264CC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6345BE1-49CA-44A1-8469-A84E8213CC24}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4319,7 +4307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C71CE5-00C0-4B6F-B2FC-CE00F604A430}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34256962-152E-48EE-999C-EE02CB145227}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5478,7 +5466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E88E7ED-2EDE-4587-BD4F-B45DC0CC5A31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7631AC-C185-4A87-9D3C-E4AAD05898D3}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5599,7 +5587,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>5667</v>
+        <v>5348</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>384</v>
@@ -5614,7 +5602,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>1405</v>
+        <v>1363</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>387</v>
@@ -5629,16 +5617,16 @@
         <v>11</v>
       </c>
       <c r="N4" s="7">
-        <v>7071</v>
+        <v>6711</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5650,7 +5638,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>2996</v>
+        <v>2785</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>392</v>
@@ -5665,7 +5653,7 @@
         <v>10</v>
       </c>
       <c r="I5" s="7">
-        <v>5640</v>
+        <v>5160</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>395</v>
@@ -5680,7 +5668,7 @@
         <v>15</v>
       </c>
       <c r="N5" s="7">
-        <v>8636</v>
+        <v>7945</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>398</v>
@@ -5701,46 +5689,46 @@
         <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>600</v>
+        <v>570</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>37</v>
+        <v>401</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
       </c>
       <c r="I6" s="7">
-        <v>2031</v>
+        <v>1857</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
       </c>
       <c r="N6" s="7">
-        <v>2631</v>
+        <v>2427</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5752,46 +5740,46 @@
         <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>7244</v>
+        <v>6772</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
       </c>
       <c r="I7" s="7">
-        <v>4879</v>
+        <v>4518</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
       </c>
       <c r="N7" s="7">
-        <v>12124</v>
+        <v>11290</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5803,7 +5791,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="7">
-        <v>16507</v>
+        <v>15476</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>49</v>
@@ -5818,7 +5806,7 @@
         <v>26</v>
       </c>
       <c r="I8" s="7">
-        <v>13955</v>
+        <v>12897</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>49</v>
@@ -5833,7 +5821,7 @@
         <v>49</v>
       </c>
       <c r="N8" s="7">
-        <v>30462</v>
+        <v>28373</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>49</v>
@@ -5856,46 +5844,46 @@
         <v>9</v>
       </c>
       <c r="D9" s="7">
-        <v>6946</v>
+        <v>6947</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H9" s="7">
         <v>10</v>
       </c>
       <c r="I9" s="7">
-        <v>5545</v>
+        <v>5236</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M9" s="7">
         <v>19</v>
       </c>
       <c r="N9" s="7">
-        <v>12491</v>
+        <v>12182</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>422</v>
+        <v>336</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5907,46 +5895,46 @@
         <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>4294</v>
+        <v>4240</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>3944</v>
+        <v>3681</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>427</v>
+        <v>152</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>428</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>83</v>
+        <v>429</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
       </c>
       <c r="N10" s="7">
-        <v>8238</v>
+        <v>7921</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5958,46 +5946,46 @@
         <v>8</v>
       </c>
       <c r="D11" s="7">
-        <v>6223</v>
+        <v>5846</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
       </c>
       <c r="I11" s="7">
-        <v>3985</v>
+        <v>3764</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M11" s="7">
         <v>14</v>
       </c>
       <c r="N11" s="7">
-        <v>10208</v>
+        <v>9610</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6009,46 +5997,46 @@
         <v>14</v>
       </c>
       <c r="D12" s="7">
-        <v>14339</v>
+        <v>13510</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H12" s="7">
         <v>17</v>
       </c>
       <c r="I12" s="7">
-        <v>12156</v>
+        <v>11272</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M12" s="7">
         <v>31</v>
       </c>
       <c r="N12" s="7">
-        <v>26494</v>
+        <v>24782</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6060,7 +6048,7 @@
         <v>37</v>
       </c>
       <c r="D13" s="7">
-        <v>31802</v>
+        <v>30543</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>49</v>
@@ -6075,7 +6063,7 @@
         <v>40</v>
       </c>
       <c r="I13" s="7">
-        <v>25630</v>
+        <v>23952</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>49</v>
@@ -6090,7 +6078,7 @@
         <v>77</v>
       </c>
       <c r="N13" s="7">
-        <v>57431</v>
+        <v>54496</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>49</v>
@@ -6113,25 +6101,25 @@
         <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>2667</v>
+        <v>2544</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
       </c>
       <c r="I14" s="7">
-        <v>1817</v>
+        <v>1690</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>453</v>
+        <v>265</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>454</v>
@@ -6143,7 +6131,7 @@
         <v>7</v>
       </c>
       <c r="N14" s="7">
-        <v>4484</v>
+        <v>4234</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>456</v>
@@ -6164,7 +6152,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="7">
-        <v>1076</v>
+        <v>1034</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>459</v>
@@ -6179,7 +6167,7 @@
         <v>2</v>
       </c>
       <c r="I15" s="7">
-        <v>891</v>
+        <v>848</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>461</v>
@@ -6194,7 +6182,7 @@
         <v>3</v>
       </c>
       <c r="N15" s="7">
-        <v>1967</v>
+        <v>1882</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>463</v>
@@ -6215,7 +6203,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>5896</v>
+        <v>5774</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>466</v>
@@ -6230,7 +6218,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>469</v>
@@ -6245,7 +6233,7 @@
         <v>7</v>
       </c>
       <c r="N16" s="7">
-        <v>6338</v>
+        <v>6242</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>471</v>
@@ -6266,7 +6254,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>1514</v>
+        <v>1360</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>474</v>
@@ -6281,7 +6269,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="7">
-        <v>4341</v>
+        <v>3957</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>476</v>
@@ -6296,16 +6284,16 @@
         <v>8</v>
       </c>
       <c r="N17" s="7">
-        <v>5855</v>
+        <v>5317</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>479</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6317,7 +6305,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="7">
-        <v>11153</v>
+        <v>10712</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>49</v>
@@ -6332,7 +6320,7 @@
         <v>13</v>
       </c>
       <c r="I18" s="7">
-        <v>7491</v>
+        <v>6963</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>49</v>
@@ -6347,7 +6335,7 @@
         <v>25</v>
       </c>
       <c r="N18" s="7">
-        <v>18644</v>
+        <v>17675</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>49</v>
@@ -6370,46 +6358,46 @@
         <v>20</v>
       </c>
       <c r="D19" s="7">
-        <v>15279</v>
+        <v>14839</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
       </c>
       <c r="I19" s="7">
-        <v>8767</v>
+        <v>8289</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>487</v>
       </c>
       <c r="M19" s="7">
         <v>37</v>
       </c>
       <c r="N19" s="7">
-        <v>24046</v>
+        <v>23127</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6421,46 +6409,46 @@
         <v>12</v>
       </c>
       <c r="D20" s="7">
-        <v>8366</v>
+        <v>8060</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>492</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>493</v>
+        <v>202</v>
       </c>
       <c r="H20" s="7">
         <v>19</v>
       </c>
       <c r="I20" s="7">
-        <v>10475</v>
+        <v>9688</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>496</v>
       </c>
       <c r="M20" s="7">
         <v>31</v>
       </c>
       <c r="N20" s="7">
-        <v>18841</v>
+        <v>17748</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>498</v>
+        <v>74</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6472,46 +6460,46 @@
         <v>15</v>
       </c>
       <c r="D21" s="7">
-        <v>12719</v>
+        <v>12190</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
       </c>
       <c r="I21" s="7">
-        <v>6458</v>
+        <v>6089</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>504</v>
+        <v>274</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="M21" s="7">
         <v>26</v>
       </c>
       <c r="N21" s="7">
-        <v>19178</v>
+        <v>18280</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>507</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6523,46 +6511,46 @@
         <v>25</v>
       </c>
       <c r="D22" s="7">
-        <v>23097</v>
+        <v>21643</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="H22" s="7">
         <v>32</v>
       </c>
       <c r="I22" s="7">
-        <v>21376</v>
+        <v>19746</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="M22" s="7">
         <v>57</v>
       </c>
       <c r="N22" s="7">
-        <v>44473</v>
+        <v>41389</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6574,7 +6562,7 @@
         <v>72</v>
       </c>
       <c r="D23" s="7">
-        <v>59462</v>
+        <v>56732</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>49</v>
@@ -6589,7 +6577,7 @@
         <v>79</v>
       </c>
       <c r="I23" s="7">
-        <v>47076</v>
+        <v>43812</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>49</v>
@@ -6604,7 +6592,7 @@
         <v>151</v>
       </c>
       <c r="N23" s="7">
-        <v>106538</v>
+        <v>100544</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>49</v>
